--- a/LearnMemTolPheno/ProcessedData/HeatPlate_autotrack/RNAi_Val2_Chamber_positions.xlsx
+++ b/LearnMemTolPheno/ProcessedData/HeatPlate_autotrack/RNAi_Val2_Chamber_positions.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizabethking/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15631D6B-C76E-0343-A680-4CDAF82D01ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -154,36 +163,43 @@
     <t>2021-07-02</t>
   </si>
   <si>
-    <t>2021-07-02_RNAi-36304.25750-3_group1</t>
-  </si>
-  <si>
     <t>2021-07-02_RNAi-25750-3_group1</t>
   </si>
   <si>
     <t>2021-07-02_RNAi-3954-3_group1</t>
   </si>
+  <si>
+    <t>2021-07-02_RNAi-36304.25750-3_group2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
@@ -193,7 +209,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -203,53 +219,50 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -439,23 +452,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E436"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="C358" sqref="C358"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="36.71"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -483,11 +501,11 @@
         <v>7</v>
       </c>
       <c r="D2" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -498,11 +516,11 @@
         <v>7</v>
       </c>
       <c r="D3" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -513,11 +531,11 @@
         <v>7</v>
       </c>
       <c r="D4" s="5">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -528,11 +546,11 @@
         <v>7</v>
       </c>
       <c r="D5" s="5">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -543,11 +561,11 @@
         <v>7</v>
       </c>
       <c r="D6" s="5">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -558,11 +576,11 @@
         <v>7</v>
       </c>
       <c r="D7" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -573,11 +591,11 @@
         <v>7</v>
       </c>
       <c r="D8" s="5">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -588,11 +606,11 @@
         <v>7</v>
       </c>
       <c r="D9" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -603,11 +621,11 @@
         <v>7</v>
       </c>
       <c r="D10" s="5">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -618,11 +636,11 @@
         <v>7</v>
       </c>
       <c r="D11" s="5">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -633,11 +651,11 @@
         <v>7</v>
       </c>
       <c r="D12" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
@@ -648,11 +666,11 @@
         <v>8</v>
       </c>
       <c r="D13" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -663,11 +681,11 @@
         <v>8</v>
       </c>
       <c r="D14" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -678,11 +696,11 @@
         <v>8</v>
       </c>
       <c r="D15" s="5">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
@@ -693,11 +711,11 @@
         <v>8</v>
       </c>
       <c r="D16" s="5">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -708,11 +726,11 @@
         <v>8</v>
       </c>
       <c r="D17" s="5">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -723,11 +741,11 @@
         <v>8</v>
       </c>
       <c r="D18" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>5</v>
       </c>
@@ -738,11 +756,11 @@
         <v>8</v>
       </c>
       <c r="D19" s="5">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
@@ -753,11 +771,11 @@
         <v>8</v>
       </c>
       <c r="D20" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -768,11 +786,11 @@
         <v>8</v>
       </c>
       <c r="D21" s="5">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -783,11 +801,11 @@
         <v>8</v>
       </c>
       <c r="D22" s="5">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -798,11 +816,11 @@
         <v>8</v>
       </c>
       <c r="D23" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -813,11 +831,11 @@
         <v>9</v>
       </c>
       <c r="D24" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -828,11 +846,11 @@
         <v>9</v>
       </c>
       <c r="D25" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -843,11 +861,11 @@
         <v>9</v>
       </c>
       <c r="D26" s="5">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -858,11 +876,11 @@
         <v>9</v>
       </c>
       <c r="D27" s="5">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
@@ -873,11 +891,11 @@
         <v>9</v>
       </c>
       <c r="D28" s="5">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
@@ -888,11 +906,11 @@
         <v>9</v>
       </c>
       <c r="D29" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -903,11 +921,11 @@
         <v>9</v>
       </c>
       <c r="D30" s="5">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
@@ -918,11 +936,11 @@
         <v>9</v>
       </c>
       <c r="D31" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>5</v>
       </c>
@@ -933,11 +951,11 @@
         <v>9</v>
       </c>
       <c r="D32" s="5">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>5</v>
       </c>
@@ -948,11 +966,11 @@
         <v>9</v>
       </c>
       <c r="D33" s="5">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
@@ -963,11 +981,11 @@
         <v>9</v>
       </c>
       <c r="D34" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
@@ -978,11 +996,11 @@
         <v>11</v>
       </c>
       <c r="D35" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
@@ -993,11 +1011,11 @@
         <v>11</v>
       </c>
       <c r="D36" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
@@ -1008,10 +1026,10 @@
         <v>11</v>
       </c>
       <c r="D37" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
@@ -1022,10 +1040,10 @@
         <v>11</v>
       </c>
       <c r="D38" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>10</v>
       </c>
@@ -1036,10 +1054,10 @@
         <v>11</v>
       </c>
       <c r="D39" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
@@ -1050,10 +1068,10 @@
         <v>11</v>
       </c>
       <c r="D40" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
@@ -1064,10 +1082,10 @@
         <v>11</v>
       </c>
       <c r="D41" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
@@ -1078,10 +1096,10 @@
         <v>11</v>
       </c>
       <c r="D42" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
@@ -1092,10 +1110,10 @@
         <v>11</v>
       </c>
       <c r="D43" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>10</v>
       </c>
@@ -1106,10 +1124,10 @@
         <v>11</v>
       </c>
       <c r="D44" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
@@ -1120,10 +1138,10 @@
         <v>11</v>
       </c>
       <c r="D45" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
@@ -1134,10 +1152,10 @@
         <v>12</v>
       </c>
       <c r="D46" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>10</v>
       </c>
@@ -1148,10 +1166,10 @@
         <v>12</v>
       </c>
       <c r="D47" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>10</v>
       </c>
@@ -1162,10 +1180,10 @@
         <v>12</v>
       </c>
       <c r="D48" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
@@ -1176,10 +1194,10 @@
         <v>12</v>
       </c>
       <c r="D49" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>10</v>
       </c>
@@ -1190,10 +1208,10 @@
         <v>12</v>
       </c>
       <c r="D50" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>10</v>
       </c>
@@ -1204,10 +1222,10 @@
         <v>12</v>
       </c>
       <c r="D51" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>10</v>
       </c>
@@ -1218,10 +1236,10 @@
         <v>12</v>
       </c>
       <c r="D52" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>10</v>
       </c>
@@ -1232,10 +1250,10 @@
         <v>12</v>
       </c>
       <c r="D53" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>10</v>
       </c>
@@ -1246,10 +1264,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>10</v>
       </c>
@@ -1260,10 +1278,10 @@
         <v>12</v>
       </c>
       <c r="D55" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>10</v>
       </c>
@@ -1274,10 +1292,10 @@
         <v>12</v>
       </c>
       <c r="D56" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>10</v>
       </c>
@@ -1288,10 +1306,10 @@
         <v>13</v>
       </c>
       <c r="D57" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>10</v>
       </c>
@@ -1302,10 +1320,10 @@
         <v>13</v>
       </c>
       <c r="D58" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>10</v>
       </c>
@@ -1316,10 +1334,10 @@
         <v>13</v>
       </c>
       <c r="D59" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>10</v>
       </c>
@@ -1330,10 +1348,10 @@
         <v>13</v>
       </c>
       <c r="D60" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>10</v>
       </c>
@@ -1344,10 +1362,10 @@
         <v>13</v>
       </c>
       <c r="D61" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>10</v>
       </c>
@@ -1358,10 +1376,10 @@
         <v>13</v>
       </c>
       <c r="D62" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>10</v>
       </c>
@@ -1372,10 +1390,10 @@
         <v>13</v>
       </c>
       <c r="D63" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>10</v>
       </c>
@@ -1386,10 +1404,10 @@
         <v>13</v>
       </c>
       <c r="D64" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>10</v>
       </c>
@@ -1400,10 +1418,10 @@
         <v>13</v>
       </c>
       <c r="D65" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>10</v>
       </c>
@@ -1414,10 +1432,10 @@
         <v>13</v>
       </c>
       <c r="D66" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>10</v>
       </c>
@@ -1428,10 +1446,10 @@
         <v>13</v>
       </c>
       <c r="D67" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>10</v>
       </c>
@@ -1442,10 +1460,10 @@
         <v>14</v>
       </c>
       <c r="D68" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>10</v>
       </c>
@@ -1456,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="D69" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>10</v>
       </c>
@@ -1470,10 +1488,10 @@
         <v>14</v>
       </c>
       <c r="D70" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>10</v>
       </c>
@@ -1484,10 +1502,10 @@
         <v>14</v>
       </c>
       <c r="D71" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>10</v>
       </c>
@@ -1498,10 +1516,10 @@
         <v>14</v>
       </c>
       <c r="D72" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>10</v>
       </c>
@@ -1512,10 +1530,10 @@
         <v>14</v>
       </c>
       <c r="D73" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>10</v>
       </c>
@@ -1526,10 +1544,10 @@
         <v>14</v>
       </c>
       <c r="D74" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>10</v>
       </c>
@@ -1540,10 +1558,10 @@
         <v>14</v>
       </c>
       <c r="D75" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>10</v>
       </c>
@@ -1554,10 +1572,10 @@
         <v>14</v>
       </c>
       <c r="D76" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>10</v>
       </c>
@@ -1568,10 +1586,10 @@
         <v>14</v>
       </c>
       <c r="D77" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>10</v>
       </c>
@@ -1582,10 +1600,10 @@
         <v>14</v>
       </c>
       <c r="D78" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>15</v>
       </c>
@@ -1596,10 +1614,10 @@
         <v>16</v>
       </c>
       <c r="D79" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>15</v>
       </c>
@@ -1610,10 +1628,10 @@
         <v>16</v>
       </c>
       <c r="D80" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>15</v>
       </c>
@@ -1624,10 +1642,10 @@
         <v>16</v>
       </c>
       <c r="D81" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>15</v>
       </c>
@@ -1638,10 +1656,10 @@
         <v>16</v>
       </c>
       <c r="D82" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>15</v>
       </c>
@@ -1652,10 +1670,10 @@
         <v>16</v>
       </c>
       <c r="D83" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>15</v>
       </c>
@@ -1666,10 +1684,10 @@
         <v>16</v>
       </c>
       <c r="D84" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>15</v>
       </c>
@@ -1680,10 +1698,10 @@
         <v>16</v>
       </c>
       <c r="D85" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>15</v>
       </c>
@@ -1694,10 +1712,10 @@
         <v>16</v>
       </c>
       <c r="D86" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>15</v>
       </c>
@@ -1708,10 +1726,10 @@
         <v>16</v>
       </c>
       <c r="D87" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>15</v>
       </c>
@@ -1722,10 +1740,10 @@
         <v>16</v>
       </c>
       <c r="D88" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>15</v>
       </c>
@@ -1736,10 +1754,10 @@
         <v>16</v>
       </c>
       <c r="D89" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>17</v>
       </c>
@@ -1750,10 +1768,10 @@
         <v>18</v>
       </c>
       <c r="D90" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>17</v>
       </c>
@@ -1764,10 +1782,10 @@
         <v>18</v>
       </c>
       <c r="D91" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>17</v>
       </c>
@@ -1778,10 +1796,10 @@
         <v>18</v>
       </c>
       <c r="D92" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>17</v>
       </c>
@@ -1792,10 +1810,10 @@
         <v>18</v>
       </c>
       <c r="D93" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>17</v>
       </c>
@@ -1806,10 +1824,10 @@
         <v>18</v>
       </c>
       <c r="D94" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>17</v>
       </c>
@@ -1820,10 +1838,10 @@
         <v>18</v>
       </c>
       <c r="D95" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>17</v>
       </c>
@@ -1834,10 +1852,10 @@
         <v>18</v>
       </c>
       <c r="D96" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>17</v>
       </c>
@@ -1848,10 +1866,10 @@
         <v>18</v>
       </c>
       <c r="D97" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>17</v>
       </c>
@@ -1862,10 +1880,10 @@
         <v>18</v>
       </c>
       <c r="D98" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>17</v>
       </c>
@@ -1876,10 +1894,10 @@
         <v>18</v>
       </c>
       <c r="D99" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>17</v>
       </c>
@@ -1890,10 +1908,10 @@
         <v>18</v>
       </c>
       <c r="D100" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>17</v>
       </c>
@@ -1904,10 +1922,10 @@
         <v>20</v>
       </c>
       <c r="D101" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>17</v>
       </c>
@@ -1918,10 +1936,10 @@
         <v>20</v>
       </c>
       <c r="D102" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>17</v>
       </c>
@@ -1932,10 +1950,10 @@
         <v>20</v>
       </c>
       <c r="D103" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>17</v>
       </c>
@@ -1946,10 +1964,10 @@
         <v>20</v>
       </c>
       <c r="D104" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>17</v>
       </c>
@@ -1960,10 +1978,10 @@
         <v>20</v>
       </c>
       <c r="D105" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>17</v>
       </c>
@@ -1974,10 +1992,10 @@
         <v>20</v>
       </c>
       <c r="D106" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>17</v>
       </c>
@@ -1988,10 +2006,10 @@
         <v>20</v>
       </c>
       <c r="D107" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>17</v>
       </c>
@@ -2002,10 +2020,10 @@
         <v>20</v>
       </c>
       <c r="D108" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>17</v>
       </c>
@@ -2016,10 +2034,10 @@
         <v>20</v>
       </c>
       <c r="D109" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>17</v>
       </c>
@@ -2030,10 +2048,10 @@
         <v>20</v>
       </c>
       <c r="D110" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>17</v>
       </c>
@@ -2044,10 +2062,10 @@
         <v>20</v>
       </c>
       <c r="D111" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>17</v>
       </c>
@@ -2058,10 +2076,10 @@
         <v>21</v>
       </c>
       <c r="D112" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>17</v>
       </c>
@@ -2072,10 +2090,10 @@
         <v>21</v>
       </c>
       <c r="D113" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>17</v>
       </c>
@@ -2086,10 +2104,10 @@
         <v>21</v>
       </c>
       <c r="D114" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>17</v>
       </c>
@@ -2100,10 +2118,10 @@
         <v>21</v>
       </c>
       <c r="D115" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>17</v>
       </c>
@@ -2114,10 +2132,10 @@
         <v>21</v>
       </c>
       <c r="D116" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>17</v>
       </c>
@@ -2128,10 +2146,10 @@
         <v>21</v>
       </c>
       <c r="D117" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>17</v>
       </c>
@@ -2142,10 +2160,10 @@
         <v>21</v>
       </c>
       <c r="D118" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>17</v>
       </c>
@@ -2156,10 +2174,10 @@
         <v>21</v>
       </c>
       <c r="D119" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>17</v>
       </c>
@@ -2170,10 +2188,10 @@
         <v>21</v>
       </c>
       <c r="D120" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>17</v>
       </c>
@@ -2184,10 +2202,10 @@
         <v>21</v>
       </c>
       <c r="D121" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>17</v>
       </c>
@@ -2198,10 +2216,10 @@
         <v>21</v>
       </c>
       <c r="D122" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>17</v>
       </c>
@@ -2212,10 +2230,10 @@
         <v>20</v>
       </c>
       <c r="D123" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>17</v>
       </c>
@@ -2226,10 +2244,10 @@
         <v>20</v>
       </c>
       <c r="D124" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>17</v>
       </c>
@@ -2240,10 +2258,10 @@
         <v>20</v>
       </c>
       <c r="D125" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>17</v>
       </c>
@@ -2254,10 +2272,10 @@
         <v>20</v>
       </c>
       <c r="D126" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>17</v>
       </c>
@@ -2268,10 +2286,10 @@
         <v>20</v>
       </c>
       <c r="D127" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>17</v>
       </c>
@@ -2282,10 +2300,10 @@
         <v>20</v>
       </c>
       <c r="D128" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>17</v>
       </c>
@@ -2296,10 +2314,10 @@
         <v>20</v>
       </c>
       <c r="D129" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>17</v>
       </c>
@@ -2310,10 +2328,10 @@
         <v>20</v>
       </c>
       <c r="D130" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>17</v>
       </c>
@@ -2324,10 +2342,10 @@
         <v>20</v>
       </c>
       <c r="D131" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>17</v>
       </c>
@@ -2338,10 +2356,10 @@
         <v>20</v>
       </c>
       <c r="D132" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>17</v>
       </c>
@@ -2352,10 +2370,10 @@
         <v>20</v>
       </c>
       <c r="D133" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>17</v>
       </c>
@@ -2366,10 +2384,10 @@
         <v>22</v>
       </c>
       <c r="D134" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>17</v>
       </c>
@@ -2380,10 +2398,10 @@
         <v>22</v>
       </c>
       <c r="D135" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>17</v>
       </c>
@@ -2394,10 +2412,10 @@
         <v>22</v>
       </c>
       <c r="D136" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>17</v>
       </c>
@@ -2408,10 +2426,10 @@
         <v>22</v>
       </c>
       <c r="D137" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>17</v>
       </c>
@@ -2422,10 +2440,10 @@
         <v>22</v>
       </c>
       <c r="D138" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>17</v>
       </c>
@@ -2436,10 +2454,10 @@
         <v>22</v>
       </c>
       <c r="D139" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>17</v>
       </c>
@@ -2450,10 +2468,10 @@
         <v>22</v>
       </c>
       <c r="D140" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>17</v>
       </c>
@@ -2464,10 +2482,10 @@
         <v>22</v>
       </c>
       <c r="D141" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>17</v>
       </c>
@@ -2478,10 +2496,10 @@
         <v>22</v>
       </c>
       <c r="D142" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>17</v>
       </c>
@@ -2492,10 +2510,10 @@
         <v>22</v>
       </c>
       <c r="D143" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>17</v>
       </c>
@@ -2506,10 +2524,10 @@
         <v>22</v>
       </c>
       <c r="D144" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>23</v>
       </c>
@@ -2520,10 +2538,10 @@
         <v>24</v>
       </c>
       <c r="D145" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>23</v>
       </c>
@@ -2534,10 +2552,10 @@
         <v>24</v>
       </c>
       <c r="D146" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>23</v>
       </c>
@@ -2548,10 +2566,10 @@
         <v>24</v>
       </c>
       <c r="D147" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>23</v>
       </c>
@@ -2562,10 +2580,10 @@
         <v>24</v>
       </c>
       <c r="D148" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>23</v>
       </c>
@@ -2576,10 +2594,10 @@
         <v>24</v>
       </c>
       <c r="D149" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>23</v>
       </c>
@@ -2590,10 +2608,10 @@
         <v>24</v>
       </c>
       <c r="D150" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>23</v>
       </c>
@@ -2604,10 +2622,10 @@
         <v>24</v>
       </c>
       <c r="D151" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>23</v>
       </c>
@@ -2618,10 +2636,10 @@
         <v>24</v>
       </c>
       <c r="D152" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>23</v>
       </c>
@@ -2632,10 +2650,10 @@
         <v>24</v>
       </c>
       <c r="D153" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>23</v>
       </c>
@@ -2646,10 +2664,10 @@
         <v>24</v>
       </c>
       <c r="D154" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>23</v>
       </c>
@@ -2660,10 +2678,10 @@
         <v>24</v>
       </c>
       <c r="D155" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>23</v>
       </c>
@@ -2674,10 +2692,10 @@
         <v>25</v>
       </c>
       <c r="D156" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>23</v>
       </c>
@@ -2688,10 +2706,10 @@
         <v>25</v>
       </c>
       <c r="D157" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>23</v>
       </c>
@@ -2702,10 +2720,10 @@
         <v>25</v>
       </c>
       <c r="D158" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>23</v>
       </c>
@@ -2716,10 +2734,10 @@
         <v>25</v>
       </c>
       <c r="D159" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>23</v>
       </c>
@@ -2730,10 +2748,10 @@
         <v>25</v>
       </c>
       <c r="D160" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>23</v>
       </c>
@@ -2744,10 +2762,10 @@
         <v>25</v>
       </c>
       <c r="D161" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>23</v>
       </c>
@@ -2758,10 +2776,10 @@
         <v>25</v>
       </c>
       <c r="D162" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>23</v>
       </c>
@@ -2772,10 +2790,10 @@
         <v>25</v>
       </c>
       <c r="D163" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>23</v>
       </c>
@@ -2786,10 +2804,10 @@
         <v>25</v>
       </c>
       <c r="D164" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>23</v>
       </c>
@@ -2800,10 +2818,10 @@
         <v>25</v>
       </c>
       <c r="D165" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>23</v>
       </c>
@@ -2814,10 +2832,10 @@
         <v>25</v>
       </c>
       <c r="D166" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>23</v>
       </c>
@@ -2828,10 +2846,10 @@
         <v>26</v>
       </c>
       <c r="D167" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>23</v>
       </c>
@@ -2842,10 +2860,10 @@
         <v>26</v>
       </c>
       <c r="D168" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>23</v>
       </c>
@@ -2856,10 +2874,10 @@
         <v>26</v>
       </c>
       <c r="D169" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>23</v>
       </c>
@@ -2870,10 +2888,10 @@
         <v>26</v>
       </c>
       <c r="D170" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>23</v>
       </c>
@@ -2884,10 +2902,10 @@
         <v>26</v>
       </c>
       <c r="D171" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>23</v>
       </c>
@@ -2898,10 +2916,10 @@
         <v>26</v>
       </c>
       <c r="D172" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>23</v>
       </c>
@@ -2912,10 +2930,10 @@
         <v>26</v>
       </c>
       <c r="D173" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>23</v>
       </c>
@@ -2926,10 +2944,10 @@
         <v>26</v>
       </c>
       <c r="D174" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>23</v>
       </c>
@@ -2940,10 +2958,10 @@
         <v>26</v>
       </c>
       <c r="D175" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>23</v>
       </c>
@@ -2954,10 +2972,10 @@
         <v>26</v>
       </c>
       <c r="D176" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>23</v>
       </c>
@@ -2968,10 +2986,10 @@
         <v>26</v>
       </c>
       <c r="D177" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>23</v>
       </c>
@@ -2982,10 +3000,10 @@
         <v>27</v>
       </c>
       <c r="D178" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>23</v>
       </c>
@@ -2996,10 +3014,10 @@
         <v>28</v>
       </c>
       <c r="D179" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>23</v>
       </c>
@@ -3010,10 +3028,10 @@
         <v>28</v>
       </c>
       <c r="D180" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>23</v>
       </c>
@@ -3024,10 +3042,10 @@
         <v>28</v>
       </c>
       <c r="D181" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>23</v>
       </c>
@@ -3038,10 +3056,10 @@
         <v>28</v>
       </c>
       <c r="D182" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>23</v>
       </c>
@@ -3052,10 +3070,10 @@
         <v>28</v>
       </c>
       <c r="D183" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>23</v>
       </c>
@@ -3066,10 +3084,10 @@
         <v>28</v>
       </c>
       <c r="D184" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>23</v>
       </c>
@@ -3080,10 +3098,10 @@
         <v>28</v>
       </c>
       <c r="D185" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>23</v>
       </c>
@@ -3094,10 +3112,10 @@
         <v>28</v>
       </c>
       <c r="D186" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>23</v>
       </c>
@@ -3108,10 +3126,10 @@
         <v>28</v>
       </c>
       <c r="D187" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>23</v>
       </c>
@@ -3122,10 +3140,10 @@
         <v>28</v>
       </c>
       <c r="D188" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>23</v>
       </c>
@@ -3136,10 +3154,10 @@
         <v>27</v>
       </c>
       <c r="D189" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>23</v>
       </c>
@@ -3150,10 +3168,10 @@
         <v>27</v>
       </c>
       <c r="D190" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>23</v>
       </c>
@@ -3164,10 +3182,10 @@
         <v>27</v>
       </c>
       <c r="D191" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>23</v>
       </c>
@@ -3178,10 +3196,10 @@
         <v>27</v>
       </c>
       <c r="D192" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>23</v>
       </c>
@@ -3192,10 +3210,10 @@
         <v>27</v>
       </c>
       <c r="D193" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>23</v>
       </c>
@@ -3206,10 +3224,10 @@
         <v>27</v>
       </c>
       <c r="D194" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>23</v>
       </c>
@@ -3220,10 +3238,10 @@
         <v>27</v>
       </c>
       <c r="D195" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>23</v>
       </c>
@@ -3234,10 +3252,10 @@
         <v>27</v>
       </c>
       <c r="D196" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>23</v>
       </c>
@@ -3248,10 +3266,10 @@
         <v>27</v>
       </c>
       <c r="D197" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>23</v>
       </c>
@@ -3262,10 +3280,10 @@
         <v>27</v>
       </c>
       <c r="D198" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>23</v>
       </c>
@@ -3276,10 +3294,10 @@
         <v>27</v>
       </c>
       <c r="D199" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>23</v>
       </c>
@@ -3290,10 +3308,10 @@
         <v>29</v>
       </c>
       <c r="D200" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>23</v>
       </c>
@@ -3304,10 +3322,10 @@
         <v>29</v>
       </c>
       <c r="D201" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>23</v>
       </c>
@@ -3318,10 +3336,10 @@
         <v>29</v>
       </c>
       <c r="D202" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>23</v>
       </c>
@@ -3332,10 +3350,10 @@
         <v>29</v>
       </c>
       <c r="D203" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>23</v>
       </c>
@@ -3346,10 +3364,10 @@
         <v>29</v>
       </c>
       <c r="D204" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>23</v>
       </c>
@@ -3360,10 +3378,10 @@
         <v>29</v>
       </c>
       <c r="D205" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>23</v>
       </c>
@@ -3374,10 +3392,10 @@
         <v>29</v>
       </c>
       <c r="D206" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>23</v>
       </c>
@@ -3388,10 +3406,10 @@
         <v>29</v>
       </c>
       <c r="D207" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>23</v>
       </c>
@@ -3402,10 +3420,10 @@
         <v>29</v>
       </c>
       <c r="D208" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>23</v>
       </c>
@@ -3416,10 +3434,10 @@
         <v>29</v>
       </c>
       <c r="D209" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>23</v>
       </c>
@@ -3430,10 +3448,10 @@
         <v>29</v>
       </c>
       <c r="D210" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>30</v>
       </c>
@@ -3444,10 +3462,10 @@
         <v>31</v>
       </c>
       <c r="D211" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>30</v>
       </c>
@@ -3458,10 +3476,10 @@
         <v>31</v>
       </c>
       <c r="D212" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>30</v>
       </c>
@@ -3472,10 +3490,10 @@
         <v>31</v>
       </c>
       <c r="D213" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>30</v>
       </c>
@@ -3486,10 +3504,10 @@
         <v>31</v>
       </c>
       <c r="D214" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="215">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>30</v>
       </c>
@@ -3500,10 +3518,10 @@
         <v>31</v>
       </c>
       <c r="D215" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="216">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>30</v>
       </c>
@@ -3514,10 +3532,10 @@
         <v>31</v>
       </c>
       <c r="D216" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="217">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>30</v>
       </c>
@@ -3528,10 +3546,10 @@
         <v>31</v>
       </c>
       <c r="D217" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="218">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>30</v>
       </c>
@@ -3542,10 +3560,10 @@
         <v>31</v>
       </c>
       <c r="D218" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="219">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>30</v>
       </c>
@@ -3556,10 +3574,10 @@
         <v>31</v>
       </c>
       <c r="D219" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>30</v>
       </c>
@@ -3570,10 +3588,10 @@
         <v>31</v>
       </c>
       <c r="D220" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>30</v>
       </c>
@@ -3584,10 +3602,10 @@
         <v>31</v>
       </c>
       <c r="D221" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="222">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>30</v>
       </c>
@@ -3598,10 +3616,10 @@
         <v>32</v>
       </c>
       <c r="D222" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="223">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>30</v>
       </c>
@@ -3612,10 +3630,10 @@
         <v>32</v>
       </c>
       <c r="D223" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>30</v>
       </c>
@@ -3626,10 +3644,10 @@
         <v>32</v>
       </c>
       <c r="D224" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>30</v>
       </c>
@@ -3640,10 +3658,10 @@
         <v>32</v>
       </c>
       <c r="D225" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>30</v>
       </c>
@@ -3654,10 +3672,10 @@
         <v>32</v>
       </c>
       <c r="D226" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>30</v>
       </c>
@@ -3668,10 +3686,10 @@
         <v>32</v>
       </c>
       <c r="D227" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="228">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>30</v>
       </c>
@@ -3682,10 +3700,10 @@
         <v>32</v>
       </c>
       <c r="D228" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>30</v>
       </c>
@@ -3696,10 +3714,10 @@
         <v>32</v>
       </c>
       <c r="D229" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>30</v>
       </c>
@@ -3710,10 +3728,10 @@
         <v>32</v>
       </c>
       <c r="D230" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>30</v>
       </c>
@@ -3724,10 +3742,10 @@
         <v>32</v>
       </c>
       <c r="D231" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="232">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>30</v>
       </c>
@@ -3738,10 +3756,10 @@
         <v>32</v>
       </c>
       <c r="D232" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>33</v>
       </c>
@@ -3752,10 +3770,10 @@
         <v>34</v>
       </c>
       <c r="D233" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="234">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>33</v>
       </c>
@@ -3766,10 +3784,10 @@
         <v>34</v>
       </c>
       <c r="D234" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="235">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>33</v>
       </c>
@@ -3780,10 +3798,10 @@
         <v>34</v>
       </c>
       <c r="D235" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>33</v>
       </c>
@@ -3794,10 +3812,10 @@
         <v>34</v>
       </c>
       <c r="D236" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="237">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>33</v>
       </c>
@@ -3808,10 +3826,10 @@
         <v>34</v>
       </c>
       <c r="D237" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="238">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>33</v>
       </c>
@@ -3822,10 +3840,10 @@
         <v>34</v>
       </c>
       <c r="D238" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="239">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>33</v>
       </c>
@@ -3836,10 +3854,10 @@
         <v>34</v>
       </c>
       <c r="D239" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="240">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>33</v>
       </c>
@@ -3850,10 +3868,10 @@
         <v>34</v>
       </c>
       <c r="D240" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="241">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>33</v>
       </c>
@@ -3864,10 +3882,10 @@
         <v>34</v>
       </c>
       <c r="D241" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="242">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>33</v>
       </c>
@@ -3878,10 +3896,10 @@
         <v>34</v>
       </c>
       <c r="D242" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="243">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>33</v>
       </c>
@@ -3892,10 +3910,10 @@
         <v>34</v>
       </c>
       <c r="D243" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="244">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>33</v>
       </c>
@@ -3906,10 +3924,10 @@
         <v>35</v>
       </c>
       <c r="D244" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="245">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>33</v>
       </c>
@@ -3920,10 +3938,10 @@
         <v>35</v>
       </c>
       <c r="D245" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="246">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>33</v>
       </c>
@@ -3934,10 +3952,10 @@
         <v>35</v>
       </c>
       <c r="D246" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="247">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>33</v>
       </c>
@@ -3948,10 +3966,10 @@
         <v>35</v>
       </c>
       <c r="D247" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="248">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>33</v>
       </c>
@@ -3962,10 +3980,10 @@
         <v>35</v>
       </c>
       <c r="D248" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="249">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>33</v>
       </c>
@@ -3976,10 +3994,10 @@
         <v>35</v>
       </c>
       <c r="D249" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="250">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>33</v>
       </c>
@@ -3990,10 +4008,10 @@
         <v>35</v>
       </c>
       <c r="D250" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="251">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>33</v>
       </c>
@@ -4004,10 +4022,10 @@
         <v>35</v>
       </c>
       <c r="D251" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="252">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>33</v>
       </c>
@@ -4018,10 +4036,10 @@
         <v>35</v>
       </c>
       <c r="D252" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="253">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>33</v>
       </c>
@@ -4032,10 +4050,10 @@
         <v>35</v>
       </c>
       <c r="D253" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="254">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>33</v>
       </c>
@@ -4046,10 +4064,10 @@
         <v>35</v>
       </c>
       <c r="D254" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="255">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>33</v>
       </c>
@@ -4060,10 +4078,10 @@
         <v>36</v>
       </c>
       <c r="D255" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="256">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>33</v>
       </c>
@@ -4074,10 +4092,10 @@
         <v>36</v>
       </c>
       <c r="D256" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="257">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>33</v>
       </c>
@@ -4088,10 +4106,10 @@
         <v>36</v>
       </c>
       <c r="D257" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="258">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>33</v>
       </c>
@@ -4102,10 +4120,10 @@
         <v>36</v>
       </c>
       <c r="D258" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="259">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>33</v>
       </c>
@@ -4116,10 +4134,10 @@
         <v>36</v>
       </c>
       <c r="D259" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="260">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>33</v>
       </c>
@@ -4130,10 +4148,10 @@
         <v>36</v>
       </c>
       <c r="D260" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="261">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>33</v>
       </c>
@@ -4144,10 +4162,10 @@
         <v>36</v>
       </c>
       <c r="D261" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="262">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>33</v>
       </c>
@@ -4158,10 +4176,10 @@
         <v>36</v>
       </c>
       <c r="D262" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="263">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>33</v>
       </c>
@@ -4172,10 +4190,10 @@
         <v>36</v>
       </c>
       <c r="D263" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="264">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>33</v>
       </c>
@@ -4186,10 +4204,10 @@
         <v>36</v>
       </c>
       <c r="D264" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="265">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>33</v>
       </c>
@@ -4200,10 +4218,10 @@
         <v>36</v>
       </c>
       <c r="D265" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="266">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>33</v>
       </c>
@@ -4214,10 +4232,10 @@
         <v>37</v>
       </c>
       <c r="D266" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="267">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>33</v>
       </c>
@@ -4228,10 +4246,10 @@
         <v>37</v>
       </c>
       <c r="D267" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="268">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>33</v>
       </c>
@@ -4242,10 +4260,10 @@
         <v>37</v>
       </c>
       <c r="D268" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="269">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>33</v>
       </c>
@@ -4256,10 +4274,10 @@
         <v>37</v>
       </c>
       <c r="D269" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="270">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>33</v>
       </c>
@@ -4270,10 +4288,10 @@
         <v>37</v>
       </c>
       <c r="D270" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="271">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>33</v>
       </c>
@@ -4284,10 +4302,10 @@
         <v>37</v>
       </c>
       <c r="D271" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="272">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>33</v>
       </c>
@@ -4298,10 +4316,10 @@
         <v>37</v>
       </c>
       <c r="D272" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="273">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>33</v>
       </c>
@@ -4312,10 +4330,10 @@
         <v>37</v>
       </c>
       <c r="D273" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="274">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>33</v>
       </c>
@@ -4326,10 +4344,10 @@
         <v>37</v>
       </c>
       <c r="D274" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="275">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>33</v>
       </c>
@@ -4340,10 +4358,10 @@
         <v>37</v>
       </c>
       <c r="D275" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="276">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>33</v>
       </c>
@@ -4354,10 +4372,10 @@
         <v>37</v>
       </c>
       <c r="D276" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="277">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>33</v>
       </c>
@@ -4368,10 +4386,10 @@
         <v>38</v>
       </c>
       <c r="D277" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="278">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>33</v>
       </c>
@@ -4382,10 +4400,10 @@
         <v>38</v>
       </c>
       <c r="D278" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="279">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>33</v>
       </c>
@@ -4396,10 +4414,10 @@
         <v>38</v>
       </c>
       <c r="D279" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="280">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>33</v>
       </c>
@@ -4410,10 +4428,10 @@
         <v>38</v>
       </c>
       <c r="D280" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="281">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>33</v>
       </c>
@@ -4424,10 +4442,10 @@
         <v>38</v>
       </c>
       <c r="D281" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="282">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>33</v>
       </c>
@@ -4438,10 +4456,10 @@
         <v>38</v>
       </c>
       <c r="D282" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="283">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>33</v>
       </c>
@@ -4452,10 +4470,10 @@
         <v>38</v>
       </c>
       <c r="D283" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="284">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>33</v>
       </c>
@@ -4466,10 +4484,10 @@
         <v>38</v>
       </c>
       <c r="D284" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="285">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>33</v>
       </c>
@@ -4480,10 +4498,10 @@
         <v>38</v>
       </c>
       <c r="D285" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="286">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>33</v>
       </c>
@@ -4494,10 +4512,10 @@
         <v>38</v>
       </c>
       <c r="D286" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="287">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>33</v>
       </c>
@@ -4508,10 +4526,10 @@
         <v>38</v>
       </c>
       <c r="D287" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="288">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>33</v>
       </c>
@@ -4522,10 +4540,10 @@
         <v>39</v>
       </c>
       <c r="D288" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="289">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>33</v>
       </c>
@@ -4536,10 +4554,10 @@
         <v>39</v>
       </c>
       <c r="D289" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="290">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>33</v>
       </c>
@@ -4550,10 +4568,10 @@
         <v>39</v>
       </c>
       <c r="D290" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="291">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>33</v>
       </c>
@@ -4564,10 +4582,10 @@
         <v>39</v>
       </c>
       <c r="D291" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="292">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>33</v>
       </c>
@@ -4578,10 +4596,10 @@
         <v>39</v>
       </c>
       <c r="D292" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="293">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>33</v>
       </c>
@@ -4592,10 +4610,10 @@
         <v>39</v>
       </c>
       <c r="D293" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="294">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>33</v>
       </c>
@@ -4606,10 +4624,10 @@
         <v>39</v>
       </c>
       <c r="D294" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="295">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>33</v>
       </c>
@@ -4620,10 +4638,10 @@
         <v>39</v>
       </c>
       <c r="D295" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="296">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>33</v>
       </c>
@@ -4634,10 +4652,10 @@
         <v>39</v>
       </c>
       <c r="D296" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="297">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>33</v>
       </c>
@@ -4648,10 +4666,10 @@
         <v>39</v>
       </c>
       <c r="D297" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="298">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="3" t="s">
         <v>40</v>
       </c>
@@ -4662,10 +4680,10 @@
         <v>41</v>
       </c>
       <c r="D298" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="299">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="3" t="s">
         <v>40</v>
       </c>
@@ -4676,10 +4694,10 @@
         <v>41</v>
       </c>
       <c r="D299" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="300">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="3" t="s">
         <v>40</v>
       </c>
@@ -4690,10 +4708,10 @@
         <v>41</v>
       </c>
       <c r="D300" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="301">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>40</v>
       </c>
@@ -4704,10 +4722,10 @@
         <v>41</v>
       </c>
       <c r="D301" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="302">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="3" t="s">
         <v>40</v>
       </c>
@@ -4718,10 +4736,10 @@
         <v>41</v>
       </c>
       <c r="D302" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="303">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>40</v>
       </c>
@@ -4732,10 +4750,10 @@
         <v>41</v>
       </c>
       <c r="D303" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="304">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="3" t="s">
         <v>40</v>
       </c>
@@ -4746,10 +4764,10 @@
         <v>41</v>
       </c>
       <c r="D304" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="305">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="3" t="s">
         <v>40</v>
       </c>
@@ -4760,10 +4778,10 @@
         <v>41</v>
       </c>
       <c r="D305" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="306">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="3" t="s">
         <v>40</v>
       </c>
@@ -4774,10 +4792,10 @@
         <v>41</v>
       </c>
       <c r="D306" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="307">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="3" t="s">
         <v>40</v>
       </c>
@@ -4788,10 +4806,10 @@
         <v>41</v>
       </c>
       <c r="D307" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="308">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>40</v>
       </c>
@@ -4802,10 +4820,10 @@
         <v>41</v>
       </c>
       <c r="D308" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="309">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>40</v>
       </c>
@@ -4816,10 +4834,10 @@
         <v>42</v>
       </c>
       <c r="D309" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="310">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>40</v>
       </c>
@@ -4830,10 +4848,10 @@
         <v>42</v>
       </c>
       <c r="D310" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="311">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>40</v>
       </c>
@@ -4844,10 +4862,10 @@
         <v>42</v>
       </c>
       <c r="D311" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="312">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>40</v>
       </c>
@@ -4858,10 +4876,10 @@
         <v>42</v>
       </c>
       <c r="D312" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="313">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>40</v>
       </c>
@@ -4872,10 +4890,10 @@
         <v>42</v>
       </c>
       <c r="D313" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="314">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" s="3" t="s">
         <v>40</v>
       </c>
@@ -4886,10 +4904,10 @@
         <v>42</v>
       </c>
       <c r="D314" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="315">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" s="3" t="s">
         <v>40</v>
       </c>
@@ -4900,10 +4918,10 @@
         <v>42</v>
       </c>
       <c r="D315" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="316">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" s="3" t="s">
         <v>40</v>
       </c>
@@ -4914,10 +4932,10 @@
         <v>42</v>
       </c>
       <c r="D316" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="317">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" s="3" t="s">
         <v>40</v>
       </c>
@@ -4928,10 +4946,10 @@
         <v>42</v>
       </c>
       <c r="D317" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="318">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" s="3" t="s">
         <v>40</v>
       </c>
@@ -4942,10 +4960,10 @@
         <v>42</v>
       </c>
       <c r="D318" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="319">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" s="3" t="s">
         <v>40</v>
       </c>
@@ -4956,10 +4974,10 @@
         <v>42</v>
       </c>
       <c r="D319" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="320">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" s="3" t="s">
         <v>40</v>
       </c>
@@ -4970,10 +4988,10 @@
         <v>43</v>
       </c>
       <c r="D320" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="321">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" s="3" t="s">
         <v>40</v>
       </c>
@@ -4984,10 +5002,10 @@
         <v>43</v>
       </c>
       <c r="D321" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="322">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" s="3" t="s">
         <v>40</v>
       </c>
@@ -4998,10 +5016,10 @@
         <v>43</v>
       </c>
       <c r="D322" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="323">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" s="3" t="s">
         <v>40</v>
       </c>
@@ -5012,10 +5030,10 @@
         <v>43</v>
       </c>
       <c r="D323" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="324">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" s="3" t="s">
         <v>40</v>
       </c>
@@ -5026,10 +5044,10 @@
         <v>43</v>
       </c>
       <c r="D324" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="325">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
         <v>40</v>
       </c>
@@ -5040,10 +5058,10 @@
         <v>43</v>
       </c>
       <c r="D325" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="326">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" s="3" t="s">
         <v>40</v>
       </c>
@@ -5054,10 +5072,10 @@
         <v>43</v>
       </c>
       <c r="D326" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="327">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>40</v>
       </c>
@@ -5068,10 +5086,10 @@
         <v>43</v>
       </c>
       <c r="D327" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="328">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>40</v>
       </c>
@@ -5082,10 +5100,10 @@
         <v>43</v>
       </c>
       <c r="D328" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="329">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>40</v>
       </c>
@@ -5096,10 +5114,10 @@
         <v>43</v>
       </c>
       <c r="D329" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="330">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>40</v>
       </c>
@@ -5110,10 +5128,10 @@
         <v>43</v>
       </c>
       <c r="D330" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="331">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>40</v>
       </c>
@@ -5124,10 +5142,10 @@
         <v>44</v>
       </c>
       <c r="D331" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="332">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>40</v>
       </c>
@@ -5138,10 +5156,10 @@
         <v>44</v>
       </c>
       <c r="D332" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="333">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>40</v>
       </c>
@@ -5152,10 +5170,10 @@
         <v>44</v>
       </c>
       <c r="D333" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="334">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>40</v>
       </c>
@@ -5166,10 +5184,10 @@
         <v>44</v>
       </c>
       <c r="D334" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="335">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>40</v>
       </c>
@@ -5180,10 +5198,10 @@
         <v>44</v>
       </c>
       <c r="D335" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="336">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>40</v>
       </c>
@@ -5194,10 +5212,10 @@
         <v>44</v>
       </c>
       <c r="D336" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="337">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" s="3" t="s">
         <v>40</v>
       </c>
@@ -5208,10 +5226,10 @@
         <v>44</v>
       </c>
       <c r="D337" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="338">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" s="3" t="s">
         <v>40</v>
       </c>
@@ -5222,10 +5240,10 @@
         <v>44</v>
       </c>
       <c r="D338" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="339">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
         <v>40</v>
       </c>
@@ -5236,10 +5254,10 @@
         <v>44</v>
       </c>
       <c r="D339" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="340">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
         <v>40</v>
       </c>
@@ -5250,10 +5268,10 @@
         <v>44</v>
       </c>
       <c r="D340" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="341">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>40</v>
       </c>
@@ -5264,10 +5282,10 @@
         <v>44</v>
       </c>
       <c r="D341" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="342">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
         <v>40</v>
       </c>
@@ -5278,10 +5296,10 @@
         <v>45</v>
       </c>
       <c r="D342" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="343">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
         <v>40</v>
       </c>
@@ -5292,10 +5310,10 @@
         <v>45</v>
       </c>
       <c r="D343" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="344">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
         <v>40</v>
       </c>
@@ -5306,10 +5324,10 @@
         <v>45</v>
       </c>
       <c r="D344" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="345">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>40</v>
       </c>
@@ -5320,10 +5338,10 @@
         <v>45</v>
       </c>
       <c r="D345" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="346">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>40</v>
       </c>
@@ -5334,10 +5352,10 @@
         <v>45</v>
       </c>
       <c r="D346" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="347">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>40</v>
       </c>
@@ -5348,10 +5366,10 @@
         <v>45</v>
       </c>
       <c r="D347" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="348">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="3" t="s">
         <v>40</v>
       </c>
@@ -5362,10 +5380,10 @@
         <v>45</v>
       </c>
       <c r="D348" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="349">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="3" t="s">
         <v>40</v>
       </c>
@@ -5376,10 +5394,10 @@
         <v>45</v>
       </c>
       <c r="D349" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="350">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="3" t="s">
         <v>40</v>
       </c>
@@ -5390,10 +5408,10 @@
         <v>45</v>
       </c>
       <c r="D350" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="351">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="3" t="s">
         <v>40</v>
       </c>
@@ -5404,10 +5422,10 @@
         <v>45</v>
       </c>
       <c r="D351" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="352">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="3" t="s">
         <v>40</v>
       </c>
@@ -5418,10 +5436,10 @@
         <v>45</v>
       </c>
       <c r="D352" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="353">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="3" t="s">
         <v>46</v>
       </c>
@@ -5429,13 +5447,13 @@
         <v>19</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D353" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="354">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="3" t="s">
         <v>46</v>
       </c>
@@ -5443,13 +5461,13 @@
         <v>19</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D354" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="355">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
         <v>46</v>
       </c>
@@ -5457,13 +5475,13 @@
         <v>19</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D355" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="356">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="3" t="s">
         <v>46</v>
       </c>
@@ -5471,13 +5489,13 @@
         <v>19</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D356" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="357">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="3" t="s">
         <v>46</v>
       </c>
@@ -5485,13 +5503,13 @@
         <v>19</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D357" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="358">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="3" t="s">
         <v>46</v>
       </c>
@@ -5499,13 +5517,13 @@
         <v>19</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D358" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="359">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="3" t="s">
         <v>46</v>
       </c>
@@ -5513,13 +5531,13 @@
         <v>19</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D359" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="360">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="3" t="s">
         <v>46</v>
       </c>
@@ -5527,13 +5545,13 @@
         <v>19</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D360" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="361">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="3" t="s">
         <v>46</v>
       </c>
@@ -5541,13 +5559,13 @@
         <v>19</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D361" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="362">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="3" t="s">
         <v>46</v>
       </c>
@@ -5555,13 +5573,13 @@
         <v>19</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D362" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="363">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="3" t="s">
         <v>46</v>
       </c>
@@ -5569,13 +5587,13 @@
         <v>19</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D363" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="364">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="3" t="s">
         <v>46</v>
       </c>
@@ -5583,13 +5601,13 @@
         <v>19</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D364" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="365">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" s="3" t="s">
         <v>46</v>
       </c>
@@ -5597,13 +5615,13 @@
         <v>19</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D365" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="366">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>46</v>
       </c>
@@ -5611,13 +5629,13 @@
         <v>19</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D366" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="367">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>46</v>
       </c>
@@ -5625,13 +5643,13 @@
         <v>19</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D367" s="5">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="368">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>46</v>
       </c>
@@ -5639,13 +5657,13 @@
         <v>19</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D368" s="5">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="369">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>46</v>
       </c>
@@ -5653,13 +5671,13 @@
         <v>19</v>
       </c>
       <c r="C369" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D369" s="5">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="370">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>46</v>
       </c>
@@ -5667,13 +5685,13 @@
         <v>19</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D370" s="5">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="371">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>46</v>
       </c>
@@ -5681,13 +5699,13 @@
         <v>19</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D371" s="5">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="372">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>46</v>
       </c>
@@ -5695,13 +5713,13 @@
         <v>19</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D372" s="5">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="373">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>46</v>
       </c>
@@ -5709,13 +5727,13 @@
         <v>19</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D373" s="5">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="374">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>46</v>
       </c>
@@ -5723,13 +5741,13 @@
         <v>19</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D374" s="5">
-        <v>27.0</v>
-      </c>
-    </row>
-    <row r="375">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>46</v>
       </c>
@@ -5737,13 +5755,13 @@
         <v>19</v>
       </c>
       <c r="C375" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D375" s="5">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="376">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>46</v>
       </c>
@@ -5751,13 +5769,13 @@
         <v>19</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D376" s="5">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="377">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>46</v>
       </c>
@@ -5765,163 +5783,163 @@
         <v>19</v>
       </c>
       <c r="C377" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D377" s="6">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="379">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D379" s="8"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D380" s="5"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D381" s="5"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D382" s="5"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D383" s="5"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D384" s="5"/>
     </row>
-    <row r="385">
+    <row r="385" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D385" s="5"/>
     </row>
-    <row r="386">
+    <row r="386" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D386" s="5"/>
     </row>
-    <row r="387">
+    <row r="387" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D387" s="5"/>
     </row>
-    <row r="388">
+    <row r="388" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D388" s="5"/>
     </row>
-    <row r="391">
+    <row r="391" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D391" s="8"/>
     </row>
-    <row r="392">
+    <row r="392" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D392" s="5"/>
     </row>
-    <row r="393">
+    <row r="393" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D393" s="5"/>
     </row>
-    <row r="394">
+    <row r="394" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D394" s="5"/>
     </row>
-    <row r="395">
+    <row r="395" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D395" s="5"/>
     </row>
-    <row r="396">
+    <row r="396" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D396" s="5"/>
     </row>
-    <row r="397">
+    <row r="397" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D397" s="5"/>
     </row>
-    <row r="398">
+    <row r="398" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D398" s="5"/>
     </row>
-    <row r="399">
+    <row r="399" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D399" s="5"/>
     </row>
-    <row r="400">
+    <row r="400" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D400" s="5"/>
     </row>
-    <row r="403">
+    <row r="403" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D403" s="8"/>
     </row>
-    <row r="404">
+    <row r="404" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D404" s="5"/>
     </row>
-    <row r="405">
+    <row r="405" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D405" s="5"/>
     </row>
-    <row r="406">
+    <row r="406" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D406" s="5"/>
     </row>
-    <row r="407">
+    <row r="407" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D407" s="5"/>
     </row>
-    <row r="408">
+    <row r="408" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D408" s="5"/>
     </row>
-    <row r="409">
+    <row r="409" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D409" s="5"/>
     </row>
-    <row r="410">
+    <row r="410" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D410" s="5"/>
     </row>
-    <row r="411">
+    <row r="411" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D411" s="5"/>
     </row>
-    <row r="412">
+    <row r="412" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D412" s="5"/>
     </row>
-    <row r="415">
+    <row r="415" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D415" s="8"/>
     </row>
-    <row r="416">
+    <row r="416" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D416" s="5"/>
     </row>
-    <row r="417">
+    <row r="417" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D417" s="5"/>
     </row>
-    <row r="418">
+    <row r="418" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D418" s="5"/>
     </row>
-    <row r="419">
+    <row r="419" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D419" s="5"/>
     </row>
-    <row r="420">
+    <row r="420" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D420" s="5"/>
     </row>
-    <row r="421">
+    <row r="421" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D421" s="5"/>
     </row>
-    <row r="422">
+    <row r="422" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D422" s="5"/>
     </row>
-    <row r="423">
+    <row r="423" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D423" s="5"/>
     </row>
-    <row r="424">
+    <row r="424" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D424" s="5"/>
     </row>
-    <row r="427">
+    <row r="427" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D427" s="8"/>
     </row>
-    <row r="428">
+    <row r="428" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D428" s="5"/>
     </row>
-    <row r="429">
+    <row r="429" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D429" s="5"/>
     </row>
-    <row r="430">
+    <row r="430" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D430" s="5"/>
     </row>
-    <row r="431">
+    <row r="431" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D431" s="5"/>
     </row>
-    <row r="432">
+    <row r="432" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D432" s="5"/>
     </row>
-    <row r="433">
+    <row r="433" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D433" s="5"/>
     </row>
-    <row r="434">
+    <row r="434" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D434" s="5"/>
     </row>
-    <row r="435">
+    <row r="435" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D435" s="5"/>
     </row>
-    <row r="436">
+    <row r="436" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D436" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>